--- a/biology/Zoologie/Bécarde_à_nuque_blanche/Bécarde_à_nuque_blanche.xlsx
+++ b/biology/Zoologie/Bécarde_à_nuque_blanche/Bécarde_à_nuque_blanche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B%C3%A9carde_%C3%A0_nuque_blanche</t>
+          <t>Bécarde_à_nuque_blanche</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Xenopsaris albinucha
 La Bécarde à nuque blanche (Xenopsaris albinucha) est une espèce d'oiseaux de la famille des Tityridae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B%C3%A9carde_%C3%A0_nuque_blanche</t>
+          <t>Bécarde_à_nuque_blanche</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,15 +524,17 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (13 juin 2018)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (13 juin 2018) :
 sous-espèce Xenopsaris albinucha albinucha (Burmeister, 1869)
 sous-espèce Xenopsaris albinucha minor Hellmayr, 1920
-Selon Catalogue of Life                                   (13 juin 2018)[2] :
+Selon Catalogue of Life                                   (13 juin 2018) :
 sous-espèce Xenopsaris albinucha albinucha (Burmeister, 1869)
 sous-espèce Xenopsaris albinucha minor Hellmayr, 1920
-Selon la classification de référence du Congrès ornithologique international  (version 8.1, 2018)[3] :
+Selon la classification de référence du Congrès ornithologique international  (version 8.1, 2018) :
 sous-espèce Xenopsaris albinucha minor Hellmayr, 1920
 sous-espèce Xenopsaris albinucha albinucha (Burmeister, 1869)</t>
         </is>
